--- a/Datenaufbereitung 100.000/Linkanalyse Zuordnung 100.000.xlsx
+++ b/Datenaufbereitung 100.000/Linkanalyse Zuordnung 100.000.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marc_\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marc_\OneDrive\Dokumente\GitHub\linkanalysis\Datenaufbereitung 100.000\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1031,7 +1031,7 @@
     <t>",</t>
   </si>
   <si>
-    <t>NOTE: Die Spalten C und D werden verwendet um die Edges zu bilden im Programm visSetEdges.py, Die Spalten E-G werden verwendet um die Knoten darzustellen. Dies geschieht im Python Programm visSetNodes.py. A und B dienen zur Darstellung der Gesamtliste</t>
+    <t>NOTE: Die Spalten C und D werden verwendet um die Edges zu bilden im Programm visSetEdges.py, Die Spalten E-G werden verwendet um die Knoten darzustellen. Dies geschieht im Python Programm visSetNodes.py. A und B dienen zur Darstellung der Gesamtliste.</t>
   </si>
 </sst>
 </file>
@@ -1082,47 +1082,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1432,7 +1392,7 @@
   <dimension ref="A1:I400"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1048576"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10051,13 +10011,13 @@
     <sortCondition ref="F1"/>
   </sortState>
   <conditionalFormatting sqref="E400:E1048576 E1:E333">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F334 F402:F1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
